--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B101480\OneDrive - NTTコミュニケーションズ株式会社\SecuredPC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\b-keeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB96A48-CFCD-42AB-A74F-61609E779FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D18072-7FF3-4ED1-9A5C-93E1A585A99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="詳細表示画面１" sheetId="6" r:id="rId4"/>
     <sheet name="詳細入力画面１" sheetId="4" r:id="rId5"/>
     <sheet name="詳細入力画面２" sheetId="5" r:id="rId6"/>
+    <sheet name="DB" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>各年度で分ける</t>
     <rPh sb="0" eb="3">
@@ -69,24 +70,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入/支出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别（用途）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,7 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -133,7 +161,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -158,7 +186,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -170,7 +198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -312,7 +340,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
@@ -321,7 +349,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ja-JP"/>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -435,7 +463,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -447,7 +475,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -477,7 +505,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -491,7 +519,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -509,7 +537,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -542,7 +570,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -554,7 +582,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -666,7 +694,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -678,7 +706,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="539650191"/>
@@ -725,7 +753,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="50000"/>
@@ -737,7 +765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="897491119"/>
@@ -778,7 +806,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6557,9 +6585,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6575,9 +6603,9 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="13:13">
+    <row r="6" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M6" t="s">
         <v>0</v>
       </c>
@@ -6598,12 +6626,12 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O17" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -6611,7 +6639,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -6619,7 +6647,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -6627,7 +6655,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -6651,7 +6679,7 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6668,7 +6696,7 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6685,11 +6713,53 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB8EC1A-67F7-4E34-B4E7-55C73C24E55E}">
+  <dimension ref="B4:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\b-keeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D18072-7FF3-4ED1-9A5C-93E1A585A99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE08E174-E0C8-47D1-A786-67039461434D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>各年度で分ける</t>
     <rPh sb="0" eb="3">
@@ -84,6 +84,46 @@
   </si>
   <si>
     <t>类别（用途）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分类名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分类ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小分类名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小分类ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储蓄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前结余</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6622,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD879725-54FD-460A-8E1A-46578C5BE158}">
   <dimension ref="A17:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6675,7 +6715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4682E6-9B8E-44B3-B796-4AE1DE06D638}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -6724,37 +6764,69 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB8EC1A-67F7-4E34-B4E7-55C73C24E55E}">
-  <dimension ref="B4:B8"/>
+  <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
